--- a/Protokoll 9/Versuch 8 Berechnungen.xlsx
+++ b/Protokoll 9/Versuch 8 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>delta V</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +73,230 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="109">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +626,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>80.7</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f>I3/1000</f>
+        <v>8.0700000000000008E-2</v>
+      </c>
+      <c r="L3">
+        <f>J3/2000</f>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="M3">
+        <f>L3^4/K3</f>
+        <v>2.4504821096654273E-13</v>
+      </c>
+      <c r="N3">
+        <f>SQRT((0.1/I3)^2+4*(0.01/J3)^2)*M3</f>
+        <v>6.5416702963177949E-15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="C4" s="1">
+        <v>1.3499999999999999E-5</v>
+      </c>
+      <c r="D4">
+        <v>120.43</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4/D4</f>
+        <v>1.1209831437349496E-7</v>
+      </c>
+      <c r="I4">
+        <v>80.5</v>
+      </c>
+      <c r="J4">
+        <v>0.88</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="0">I4/1000</f>
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="1">J4/2000</f>
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="2">L4^4/K4</f>
+        <v>4.6560198757763976E-13</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N7" si="3">SQRT((0.1/I4)^2+4*(0.01/J4)^2)*M4</f>
+        <v>1.0597658430787154E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="C5" s="1">
+        <v>1.98E-5</v>
+      </c>
+      <c r="D5">
+        <v>179.45</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E7" si="4">C5/D5</f>
+        <v>1.1033714126497632E-7</v>
+      </c>
+      <c r="I5">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J5">
+        <v>0.81</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>4.0500000000000003E-4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>3.3672341207759707E-13</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>8.3248322956988815E-15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="C6" s="1">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="D6">
+        <v>62.09</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1757126751489773E-7</v>
+      </c>
+      <c r="I6">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>8.3521000000000044E-13</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1.6409095852430575E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="C7" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D7">
+        <v>30.97</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2915724895059736E-7</v>
+      </c>
+      <c r="I7">
+        <v>122.3</v>
+      </c>
+      <c r="J7">
+        <v>0.82</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.12229999999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2.3105159443990192E-13</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>5.6385705750296165E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="E8" s="1">
+        <f>AVERAGE(E4:E7)</f>
+        <v>1.1729099302599159E-7</v>
+      </c>
+      <c r="F8">
+        <f>STDEV(E4:E7)</f>
+        <v>8.4893374174046981E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D11">
+        <v>68.67</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11/D11</f>
+        <v>2.1843599825251201E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="C12" s="1">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="D12">
+        <v>125.87</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E14" si="5">C12/D12</f>
+        <v>2.1450703106379596E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D13">
+        <v>182.77</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1885429775127209E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="C14" s="1">
+        <v>1.9899999999999999E-5</v>
+      </c>
+      <c r="D14">
+        <v>89.16</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2319425751458052E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="E15" s="1">
+        <f>AVERAGE(E11:E14)</f>
+        <v>2.1874789614554015E-7</v>
+      </c>
+      <c r="F15">
+        <f>STDEV(E11:E14)</f>
+        <v>3.55263600082293E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="C18" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D18">
+        <v>59.29</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18/D18</f>
+        <v>1.5179625569235959E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="C19" s="1">
+        <v>1.8300000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>121.73</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E21" si="6">C19/D19</f>
+        <v>1.5033270352419289E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" s="1">
+        <v>2.6699999999999998E-5</v>
+      </c>
+      <c r="D20">
+        <v>180.23</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4814403817344504E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="C21" s="1">
+        <v>1.4E-5</v>
+      </c>
+      <c r="D21">
+        <v>93.63</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4952472498130942E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="E22" s="1">
+        <f>AVERAGE(E18:E21)</f>
+        <v>1.4994943059282673E-7</v>
+      </c>
+      <c r="F22">
+        <f>STDEV(E18:E21)</f>
+        <v>1.5272500049214499E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="1">
+        <v>2.2500000000000001E-5</v>
+      </c>
+      <c r="D25">
+        <v>60.31</v>
+      </c>
+      <c r="E25" s="1">
+        <f>C25/D25</f>
+        <v>3.7307245896202954E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" s="1">
+        <v>1.13E-5</v>
+      </c>
+      <c r="D26">
+        <v>30.06</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E28" si="7">C26/D26</f>
+        <v>3.7591483699268132E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="1">
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="D27">
+        <v>90.82</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6886148425456952E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="1">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D28">
+        <v>45.2</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7610619469026547E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" s="1">
+        <f>AVERAGE(E25:E28)</f>
+        <v>3.7348874372488644E-7</v>
+      </c>
+      <c r="F29">
+        <f>STDEV(E25:E28)</f>
+        <v>3.3823956652855633E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D32">
+        <v>30.8</v>
+      </c>
+      <c r="E32" s="1">
+        <f>C32/D32</f>
+        <v>1.2987012987012987E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="1">
+        <v>7.6000000000000001E-6</v>
+      </c>
+      <c r="D33">
+        <v>63.38</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ref="E33:E35" si="8">C33/D33</f>
+        <v>1.1991164405175133E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="1">
+        <v>1.38E-5</v>
+      </c>
+      <c r="D34">
+        <v>119.95</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1504793664026677E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="1">
+        <v>2.05E-5</v>
+      </c>
+      <c r="D35">
+        <v>180.44</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1361117268898249E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="E36" s="1">
+        <f>AVERAGE(E32:E35)</f>
+        <v>1.1961022081278262E-7</v>
+      </c>
+      <c r="F36">
+        <f>STDEV(E32:E35)</f>
+        <v>7.3520882542872368E-9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
